--- a/Optimisation data/combined/Clinical ABC/top/SHAP/metrics_table.xlsx
+++ b/Optimisation data/combined/Clinical ABC/top/SHAP/metrics_table.xlsx
@@ -522,10 +522,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.8234491033640211</v>
+        <v>0.6039309056956117</v>
       </c>
       <c r="C4">
-        <v>0.03932485644646844</v>
+        <v>0.05182547567860592</v>
       </c>
       <c r="D4">
         <v>0.6041666666666666</v>
@@ -543,10 +543,10 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="I4">
-        <v>0.685262742262442</v>
+        <v>0.6818063895514784</v>
       </c>
       <c r="J4">
-        <v>0.7058189655172414</v>
+        <v>0.7029454022988506</v>
       </c>
       <c r="K4">
         <v>39</v>
@@ -561,10 +561,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>0.7658708133971291</v>
+        <v>0.6849653565129756</v>
       </c>
       <c r="P4">
-        <v>0.07284018495081455</v>
+        <v>0.0320721661651833</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -572,49 +572,49 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.7851375018092343</v>
+        <v>0.6151695512044775</v>
       </c>
       <c r="C5">
-        <v>0.02067441051373594</v>
+        <v>0.008033281799195885</v>
       </c>
       <c r="D5">
-        <v>0.5526315789473685</v>
+        <v>0.6040268456375839</v>
       </c>
       <c r="E5">
-        <v>0.4772727272727273</v>
+        <v>0.7679180887372016</v>
       </c>
       <c r="F5">
-        <v>0.6792452830188679</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="H5">
-        <v>0.4375</v>
+        <v>0.9375</v>
       </c>
       <c r="I5">
-        <v>0.6549987229653785</v>
+        <v>0.480220032029797</v>
       </c>
       <c r="J5">
-        <v>0.6709770114942528</v>
+        <v>0.4752155172413793</v>
       </c>
       <c r="K5">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="O5">
-        <v>0.5622870813397128</v>
+        <v>0.5984282354917275</v>
       </c>
       <c r="P5">
-        <v>0.04559416883719228</v>
+        <v>0.03076535305184156</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -622,31 +622,31 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.6936977413870867</v>
+        <v>0.5908779683957377</v>
       </c>
       <c r="C6">
-        <v>0.03312544100067901</v>
+        <v>0.1012384708695192</v>
       </c>
       <c r="D6">
-        <v>0.6041666666666666</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="E6">
-        <v>0.6041666666666666</v>
+        <v>0.6404958677685951</v>
       </c>
       <c r="F6">
-        <v>0.6415094339622641</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="G6">
-        <v>0.6041666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="H6">
-        <v>0.6041666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="I6">
-        <v>0.584205701102297</v>
+        <v>0.6060940472510277</v>
       </c>
       <c r="J6">
-        <v>0.6526580459770115</v>
+        <v>0.6663074712643678</v>
       </c>
       <c r="K6">
         <v>39</v>
@@ -655,16 +655,16 @@
         <v>19</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O6">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="P6">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -672,37 +672,37 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.7617336152219872</v>
+        <v>0.5118928236061546</v>
       </c>
       <c r="C7">
-        <v>0.02889221193379539</v>
+        <v>0.05444872521682439</v>
       </c>
       <c r="D7">
-        <v>0.4819277108433734</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E7">
-        <v>0.4405286343612335</v>
+        <v>0.4273504273504274</v>
       </c>
       <c r="F7">
-        <v>0.5943396226415094</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="G7">
-        <v>0.5714285714285714</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H7">
         <v>0.4166666666666667</v>
       </c>
       <c r="I7">
-        <v>0.5963881071937248</v>
+        <v>0.4625636418089248</v>
       </c>
       <c r="J7">
-        <v>0.617816091954023</v>
+        <v>0.5186781609195403</v>
       </c>
       <c r="K7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M7">
         <v>28</v>
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="O7">
-        <v>0.5885980861244019</v>
+        <v>0.5653174603174603</v>
       </c>
       <c r="P7">
-        <v>0.1068423469614598</v>
+        <v>0.03634023286724132</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -722,49 +722,49 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.7821035856800254</v>
+        <v>0.5802362244131926</v>
       </c>
       <c r="C8">
-        <v>0.04042455321235098</v>
+        <v>0.06104593199208728</v>
       </c>
       <c r="D8">
-        <v>0.5301204819277109</v>
+        <v>0.4819277108433734</v>
       </c>
       <c r="E8">
-        <v>0.4845814977973568</v>
+        <v>0.4405286343612335</v>
       </c>
       <c r="F8">
-        <v>0.6320754716981132</v>
+        <v>0.5943396226415094</v>
       </c>
       <c r="G8">
-        <v>0.6285714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H8">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="I8">
-        <v>0.6106290673630244</v>
+        <v>0.5796564106033033</v>
       </c>
       <c r="J8">
-        <v>0.6350574712643678</v>
+        <v>0.6131465517241379</v>
       </c>
       <c r="K8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O8">
-        <v>0.7375167464114832</v>
+        <v>0.6701383639875703</v>
       </c>
       <c r="P8">
-        <v>0.04971508853155982</v>
+        <v>0.04446710256275315</v>
       </c>
     </row>
   </sheetData>
